--- a/top_5_nba_mvp_ppg_df.xlsx
+++ b/top_5_nba_mvp_ppg_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>season</t>
   </si>
@@ -34,16 +34,7 @@
     <t>first</t>
   </si>
   <si>
-    <t>pts_won</t>
-  </si>
-  <si>
-    <t>pts_max</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>winner</t>
+    <t>pts_per_game</t>
   </si>
   <si>
     <t>nba mvp</t>
@@ -74,9 +65,6 @@
   </si>
   <si>
     <t>PHI</t>
-  </si>
-  <si>
-    <t>True</t>
   </si>
 </sst>
 </file>
@@ -434,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,174 +450,120 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1960</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <v>49</v>
       </c>
       <c r="G2">
-        <v>270</v>
-      </c>
-      <c r="H2">
-        <v>395</v>
-      </c>
-      <c r="I2">
-        <v>0.6840000000000001</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
+        <v>37.6</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1988</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F3">
         <v>47</v>
       </c>
       <c r="G3">
-        <v>665</v>
-      </c>
-      <c r="H3">
-        <v>800</v>
-      </c>
-      <c r="I3">
-        <v>0.831</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1972</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
       </c>
       <c r="D4">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <v>81</v>
       </c>
       <c r="G4">
-        <v>581</v>
-      </c>
-      <c r="H4">
-        <v>900</v>
-      </c>
-      <c r="I4">
-        <v>0.646</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
+        <v>34.8</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1975</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>81</v>
       </c>
       <c r="G5">
-        <v>547</v>
-      </c>
-      <c r="H5">
-        <v>965</v>
-      </c>
-      <c r="I5">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
+        <v>34.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>1966</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F6">
         <v>48</v>
       </c>
       <c r="G6">
-        <v>181</v>
-      </c>
-      <c r="H6">
-        <v>445</v>
-      </c>
-      <c r="I6">
-        <v>0.407</v>
-      </c>
-      <c r="J6" t="s">
-        <v>20</v>
+        <v>33.5</v>
       </c>
     </row>
   </sheetData>

--- a/top_5_nba_mvp_ppg_df.xlsx
+++ b/top_5_nba_mvp_ppg_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>season</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>team</t>
-  </si>
-  <si>
-    <t>first</t>
   </si>
   <si>
     <t>pts_per_game</t>
@@ -422,13 +419,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,122 +444,104 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1960</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
       <c r="D2">
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>49</v>
-      </c>
-      <c r="G2">
         <v>37.6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1988</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>47</v>
-      </c>
-      <c r="G3">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1972</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>81</v>
-      </c>
-      <c r="G4">
         <v>34.8</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>1975</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>81</v>
-      </c>
-      <c r="G5">
         <v>34.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>1966</v>
       </c>
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
       </c>
       <c r="D6">
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>48</v>
-      </c>
-      <c r="G6">
         <v>33.5</v>
       </c>
     </row>

--- a/top_5_nba_mvp_ppg_df.xlsx
+++ b/top_5_nba_mvp_ppg_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>season</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>pts_per_game</t>
+  </si>
+  <si>
+    <t>1960</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>1972</t>
+  </si>
+  <si>
+    <t>1975</t>
+  </si>
+  <si>
+    <t>1966</t>
   </si>
   <si>
     <t>nba mvp</t>
@@ -446,100 +461,100 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1960</v>
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F2">
         <v>37.6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3">
-        <v>1988</v>
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4">
-        <v>1972</v>
+      <c r="A4" t="s">
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F4">
         <v>34.8</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5">
-        <v>1975</v>
+      <c r="A5" t="s">
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F5">
         <v>34.5</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6">
-        <v>1966</v>
+      <c r="A6" t="s">
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F6">
         <v>33.5</v>

--- a/top_5_nba_mvp_ppg_df.xlsx
+++ b/top_5_nba_mvp_ppg_df.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
-  <si>
-    <t>season</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+  <si>
+    <t>year</t>
   </si>
   <si>
     <t>award</t>
@@ -31,7 +31,13 @@
     <t>team</t>
   </si>
   <si>
+    <t>pf_per_game</t>
+  </si>
+  <si>
     <t>pts_per_game</t>
+  </si>
+  <si>
+    <t>season_y</t>
   </si>
   <si>
     <t>1960</t>
@@ -434,13 +440,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,105 +465,141 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2">
+        <v>2.1</v>
+      </c>
+      <c r="G2">
         <v>37.6</v>
       </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3">
+        <v>3.3</v>
+      </c>
+      <c r="G3">
         <v>35</v>
       </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4">
+        <v>2.9</v>
+      </c>
+      <c r="G4">
         <v>34.8</v>
       </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5">
+        <v>3.4</v>
+      </c>
+      <c r="G5">
         <v>34.5</v>
       </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F6">
+        <v>2.2</v>
+      </c>
+      <c r="G6">
         <v>33.5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/top_5_nba_mvp_ppg_df.xlsx
+++ b/top_5_nba_mvp_ppg_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>year</t>
   </si>
@@ -83,6 +83,21 @@
   </si>
   <si>
     <t>PHI</t>
+  </si>
+  <si>
+    <t>1959-60</t>
+  </si>
+  <si>
+    <t>1987-88</t>
+  </si>
+  <si>
+    <t>1971-72</t>
+  </si>
+  <si>
+    <t>1974-75</t>
+  </si>
+  <si>
+    <t>1965-66</t>
   </si>
 </sst>
 </file>
@@ -495,7 +510,7 @@
         <v>37.6</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -521,7 +536,7 @@
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -547,7 +562,7 @@
         <v>34.8</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -573,7 +588,7 @@
         <v>34.5</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -599,7 +614,7 @@
         <v>33.5</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/top_5_nba_mvp_ppg_df.xlsx
+++ b/top_5_nba_mvp_ppg_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>year</t>
   </si>
@@ -40,6 +40,9 @@
     <t>season_y</t>
   </si>
   <si>
+    <t>double_double_avg</t>
+  </si>
+  <si>
     <t>1960</t>
   </si>
   <si>
@@ -98,6 +101,9 @@
   </si>
   <si>
     <t>1965-66</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -455,13 +461,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,22 +492,25 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2">
         <v>2.1</v>
@@ -510,24 +519,27 @@
         <v>37.6</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>3.3</v>
@@ -536,24 +548,27 @@
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4">
         <v>2.9</v>
@@ -562,24 +577,27 @@
         <v>34.8</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5">
         <v>3.4</v>
@@ -588,24 +606,27 @@
         <v>34.5</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6">
         <v>2.2</v>
@@ -614,7 +635,10 @@
         <v>33.5</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/top_5_nba_mvp_ppg_df.xlsx
+++ b/top_5_nba_mvp_ppg_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>year</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>1965-66</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
   <si>
     <t>No</t>
@@ -551,7 +554,7 @@
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9">

--- a/top_5_nba_mvp_ppg_df.xlsx
+++ b/top_5_nba_mvp_ppg_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>year</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>double_double_avg</t>
+  </si>
+  <si>
+    <t>triple_double_avg</t>
   </si>
   <si>
     <t>1960</t>
@@ -464,13 +467,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,22 +501,25 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>2.1</v>
@@ -522,27 +528,30 @@
         <v>37.6</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <v>3.3</v>
@@ -551,27 +560,30 @@
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>2.9</v>
@@ -580,27 +592,30 @@
         <v>34.8</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5">
         <v>3.4</v>
@@ -609,27 +624,30 @@
         <v>34.5</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6">
         <v>2.2</v>
@@ -638,10 +656,13 @@
         <v>33.5</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/top_5_nba_mvp_ppg_df.xlsx
+++ b/top_5_nba_mvp_ppg_df.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
-  <si>
-    <t>year</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+  <si>
+    <t>season_ending_year</t>
   </si>
   <si>
     <t>award</t>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>triple_double_avg</t>
+  </si>
+  <si>
+    <t>calendar_year</t>
   </si>
   <si>
     <t>1960</t>
@@ -467,13 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,22 +507,25 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2">
         <v>2.1</v>
@@ -528,30 +534,33 @@
         <v>37.6</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="K2">
+        <v>1960</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>3.3</v>
@@ -560,30 +569,33 @@
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="K3">
+        <v>1988</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4">
         <v>2.9</v>
@@ -592,30 +604,33 @@
         <v>34.8</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="K4">
+        <v>1972</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5">
         <v>3.4</v>
@@ -624,30 +639,33 @@
         <v>34.5</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="K5">
+        <v>1975</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <v>2.2</v>
@@ -656,13 +674,16 @@
         <v>33.5</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="K6">
+        <v>1966</v>
       </c>
     </row>
   </sheetData>
